--- a/libraryBooks.xlsx
+++ b/libraryBooks.xlsx
@@ -484,12 +484,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[12, 9000]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 156 cancelled their reservation', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.']</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[156]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.']</t>
         </is>
       </c>
     </row>

--- a/libraryBooks.xlsx
+++ b/libraryBooks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 156.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 156 cancelled their reservation', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.', 'User 9000 cancelled their reservation', 'User 12 cancelled their reservation', 'Resereved by user 12.', 'Resereved by user 9000.']</t>
+          <t>['Resereved by user 12.', 'Resereved by user 9000.']</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.', 'User 156 cancelled their reservation', 'Resereved by user 156.']</t>
+          <t>['Resereved by user 156.']</t>
         </is>
       </c>
     </row>
